--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B0776-D9DF-45C8-B192-A42D01826D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87679D1-8E86-46C9-B4C2-60BA5FD93450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,12 +231,6 @@
     <t>issueNumber</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>74-yhj-gb8</t>
-  </si>
-  <si>
     <t>สมหมาย</t>
   </si>
   <si>
@@ -298,6 +292,12 @@
   </si>
   <si>
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>asfkjjh6-asd</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -885,94 +885,94 @@
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AG2" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>84</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="BP2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87679D1-8E86-46C9-B4C2-60BA5FD93450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C890A0-9A1E-467D-87E5-902ED1E13750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10452" yWindow="1056" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,10 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>asfkjjh6-asd</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -885,10 +885,10 @@
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C890A0-9A1E-467D-87E5-902ED1E13750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F351AA-4BAD-49D3-9C66-D05DC0CB5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10452" yWindow="1056" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -297,7 +297,7 @@
     <t>asfkjjh6-asd</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F351AA-4BAD-49D3-9C66-D05DC0CB5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3F2B0-9398-4D68-BAFA-4471DB5C8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>taxPayerBranchType</t>
   </si>
@@ -667,7 +667,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -971,9 +971,7 @@
       <c r="BF2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="BP2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3F2B0-9398-4D68-BAFA-4471DB5C8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878641B-1723-473E-858D-36D8E35C17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878641B-1723-473E-858D-36D8E35C17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD9E1F-D9CC-4481-8126-37981153845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="2070" windowWidth="11925" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -231,6 +231,12 @@
     <t>issueNumber</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>asfkjjh6-asd</t>
+  </si>
+  <si>
     <t>สมหมาย</t>
   </si>
   <si>
@@ -292,24 +298,19 @@
   </si>
   <si>
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
-  </si>
-  <si>
-    <t>asfkjjh6-asd</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -383,7 +384,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -395,7 +396,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -442,23 +443,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +478,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,20 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="16384" max="16384" width="11.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,99 +844,98 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="BP2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD9E1F-D9CC-4481-8126-37981153845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C0B7C3-37E6-4996-9CE8-D44A83EA05D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="2070" windowWidth="11925" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>issueNumber</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>asfkjjh6-asd</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BP2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -847,91 +847,91 @@
     <row r="2" spans="1:68">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="BP2" s="1"/>
     </row>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C0B7C3-37E6-4996-9CE8-D44A83EA05D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988B23F-27BC-4A20-B69E-B77CC7940042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C71810-E14C-43AE-A644-A38B402BFFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C0F0C-0EAB-49E1-A6CA-89F7CDC9E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C0F0C-0EAB-49E1-A6CA-89F7CDC9E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1639EAB-2A61-42D6-A1CA-4BF9C1F246AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,14 +297,14 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,15 +630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>90</v>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1639EAB-2A61-42D6-A1CA-4BF9C1F246AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863407A-9F45-4B27-B581-0985D0FEE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
